--- a/Results/Fixed_optRetrofit_randTornado/RandomTornadoGenerator.xlsx
+++ b/Results/Fixed_optRetrofit_randTornado/RandomTornadoGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\Fixed_optRetrofit_randTornado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BABC270-D8CA-4DAF-BE32-650D21900623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B868C5-1C38-4B76-A556-4F822028D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-10-05_10-12-53_100Clusters" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="48">
   <si>
     <t>Budget :</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>head indx</t>
+  </si>
+  <si>
+    <t>tail indx</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>15M</t>
+  </si>
+  <si>
+    <t>0M</t>
+  </si>
+  <si>
+    <t>30M</t>
   </si>
 </sst>
 </file>
@@ -628,9 +667,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -676,7 +721,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -686,6 +741,32 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,6 +779,1555 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2022-10-05_10-12-53_100Clusters'!$K$16:$K$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-5163.7403999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5163.4674000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5162.9214000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5162.8668000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5162.8668000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5162.7030000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5162.5392000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5162.5392000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5162.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5162.3208000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5162.0478000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5161.9931999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5161.9386000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5161.9386000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5161.7202000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5161.6109999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5161.4471999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5161.3926000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5161.3380000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5161.2288000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5161.1196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5161.1196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5161.0650000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5161.0104000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5160.9012000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5160.8465999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5160.8465999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5160.8465999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5160.8465999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5160.7920000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5160.7920000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5160.6828000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5160.6282000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5160.6282000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5160.5736000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5160.5736000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5160.5190000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5160.4643999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5160.3552</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5160.3552</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5160.3005999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5160.3005999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5160.2460000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5160.2460000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5160.1913999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5160.1913999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5160.1368000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5160.0822000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5160.0822000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5159.973</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5159.973</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5159.9184000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5159.8638000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5159.7546000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5159.7546000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5159.7546000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5159.6453999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5159.5907999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5159.4270000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5159.4270000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5159.3724000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5159.3724000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5159.3724000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-5159.3177999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-5159.3177999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5159.3177999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5159.2632000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5159.0994000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-5159.0994000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-5158.9902000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-5158.9356000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-5158.8810000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5158.8263999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5158.8263999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5158.8263999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5158.8263999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5158.7718000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5158.7172</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5158.7172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5158.3896000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5158.2804000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5158.1711999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-5158.1166000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-5158.0073999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-5157.7890000000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5157.7344000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5157.7344000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-5157.4614000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5157.4067999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-5157.3521999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5157.2975999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-5157.1884</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-5156.8607999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-5156.4786000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5156.4786000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-5156.424</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-5155.9872000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-5155.9326000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-5155.4412000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-5154.8406000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2022-10-05_10-12-53_100Clusters'!$L$16:$L$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2557.2089999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2557.8989999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2557.2089999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2556.5880000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2556.105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2557.692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2558.2440000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2557.002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2559.4859999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2557.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2557.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2558.7269999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2558.2440000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2559.279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2557.623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2556.0359999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2560.107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2559.4170000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2557.623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2558.8650000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2560.7280000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2557.9680000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2557.4160000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2558.451</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2559.1410000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2560.0379999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2556.6569999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2559.4859999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2558.1750000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2558.7960000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2557.692</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2555.9670000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2557.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2558.1059999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2559.279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2556.5190000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2559.7619999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2557.692</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2557.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2555.8980000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2555.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2558.6579999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2556.864</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2558.1750000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2557.4849999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2562.7980000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2561.2799999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2557.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2560.7280000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2559.348</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2557.9680000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2556.3809999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2555.7599999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2557.4160000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2558.3820000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2558.7960000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2559.4170000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2557.8989999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2556.5190000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2557.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2555.6910000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2559.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2561.9009999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2560.2449999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2558.52</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2560.9349999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2554.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2559.0030000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2557.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2556.5190000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2560.3829999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2559.21</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2560.866</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2555.415</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2561.556</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2558.2440000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2554.5870000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2558.7269999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2557.692</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2560.9349999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2555.9670000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2558.451</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2561.694</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2559.21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2560.3140000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2558.2440000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2558.9339999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2556.3809999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2561.2109999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2558.9339999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2560.3829999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2557.4849999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2559.6930000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2556.6569999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2559.4859999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2557.623</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2556.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2559.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2557.2089999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2557.692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-328E-4D6B-B5AE-DDBC70786A65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2022-10-05_10-12-53_100Clusters'!$K$12:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-5160.7743372749528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5157.6803860124246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2022-10-05_10-12-53_100Clusters'!$L$12:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2558.4573639460441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2562.3851452007862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-328E-4D6B-B5AE-DDBC70786A65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460836216"/>
+        <c:axId val="460838776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460836216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460838776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460838776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460836216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>478118</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79CDC69-7E48-E3CB-1D93-FB55FC8EEB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,7 +2638,7 @@
     <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +2660,7 @@
         <v>10630</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +2668,7 @@
         <v>10689</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +2676,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +2684,7 @@
         <v>693.03</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +2703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +2717,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1105,10 +2735,10 @@
       </c>
       <c r="N9">
         <f ca="1">SQRT((K13-K12)^2+(L13-L12)^2)</f>
-        <v>4.9999999999999405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>5.0000000000002984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1128,74 +2758,78 @@
       </c>
       <c r="K11">
         <f ca="1">RAND() * 2 *3.14</f>
-        <v>2.3988562899753618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.90359454776473302</v>
+      </c>
+      <c r="T11">
+        <f ca="1">RANDBETWEEN(16,115)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <f ca="1">K12/54.6</f>
-        <v>-94.487179487179489</v>
+        <v>-94.51967650686727</v>
       </c>
       <c r="C12">
         <f ca="1">L12/69</f>
-        <v>37</v>
+        <v>37.079092231102088</v>
       </c>
       <c r="K12">
-        <f ca="1">RANDBETWEEN(K8,K9)</f>
-        <v>-5159</v>
+        <f ca="1">RAND()*(K9-K8)+K8</f>
+        <v>-5160.7743372749528</v>
       </c>
       <c r="L12">
-        <f ca="1">RANDBETWEEN(L8,L9)</f>
-        <v>2553</v>
+        <f ca="1">RAND()*(L9-L8)+L8</f>
+        <v>2558.4573639460441</v>
       </c>
       <c r="N12" t="s">
         <v>28</v>
       </c>
       <c r="O12">
         <f ca="1">(L13-L12)/(K13-K12)</f>
-        <v>-0.91811987324023248</v>
+        <v>1.2695032731486824</v>
       </c>
       <c r="Q12">
         <f ca="1">ABS(L12-$O$12*K12-$O$13)/SQRT(1+$O$12^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <f ca="1">K13/54.6</f>
-        <v>-94.554635595184664</v>
+        <v>-94.46301073282828</v>
       </c>
       <c r="C13">
         <f ca="1">L13/69</f>
-        <v>37.049007688635832</v>
+        <v>37.136016597112842</v>
       </c>
       <c r="K13">
         <f ca="1">K12+5*COS(K11)</f>
-        <v>-5162.6831034970828</v>
+        <v>-5157.6803860124246</v>
       </c>
       <c r="L13">
         <f ca="1">L12+5*SIN(K11)</f>
-        <v>2556.3815305158723</v>
+        <v>2562.3851452007862</v>
       </c>
       <c r="N13" t="s">
         <v>29</v>
       </c>
       <c r="O13">
         <f ca="1">L13-O12*K13</f>
-        <v>-2183.5804260463592</v>
+        <v>9110.0772770983185</v>
       </c>
       <c r="Q13">
         <f ca="1">ABS(L13-$O$12*K13-$O$13)/SQRT(1+$O$12^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" ref="K14:K15" si="0">B14*54.6</f>
         <v>0</v>
@@ -1205,11 +2839,11 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:Q15" ca="1" si="2">ABS(L14-$O$12*K14-$O$13)/SQRT(1+$O$12^2)</f>
-        <v>1608.4705406666033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <f ca="1">ABS(L14-$O$12*K14-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>5637.2270186412388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1246,11 +2880,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q15" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="Q15" ca="1" si="2">ABS(L15-$O$12*K15-$O$13)/SQRT(1+$O$12^2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1287,15 +2921,19 @@
         <v>2557.2089999999998</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q47" ca="1" si="5">ABS(L16-$O$12*K16-$O$13)/SQRT(1+$O$12^2)</f>
-        <v>0.10552492764426638</v>
+        <f ca="1">ABS(L16-$O$12*K16-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>1.5575336729741522</v>
       </c>
       <c r="R16">
         <f ca="1">IF(Q16&gt;0.375,A16,-1)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="T16">
+        <f>SQRT((K16-$K$17)^2+(L16-$L$17)^2)</f>
+        <v>0.74204379924614572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>70</v>
       </c>
@@ -1332,15 +2970,19 @@
         <v>2557.8989999999999</v>
       </c>
       <c r="Q17">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.58737492111962308</v>
+        <f ca="1">ABS(L17-$O$12*K17-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>1.7700420906950951</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:R80" ca="1" si="6">IF(Q17&gt;0.375,A17,-1)</f>
+        <f t="shared" ref="R17:R80" ca="1" si="5">IF(Q17&gt;0.375,A17,-1)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <f t="shared" ref="T17:T80" si="6">SQRT((K17-$K$17)^2+(L17-$L$17)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1377,15 +3019,19 @@
         <v>2557.2089999999998</v>
       </c>
       <c r="Q18">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.44836977085564916</v>
+        <f ca="1">ABS(L18-$O$12*K18-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>0.91416310344830864</v>
       </c>
       <c r="R18">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(Q18&gt;0.375,A18,-1)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0.87989544833484468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>85</v>
       </c>
@@ -1422,15 +3068,19 @@
         <v>2556.5880000000002</v>
       </c>
       <c r="Q19">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.7854629751506904E-2</v>
+        <f ca="1">ABS(L19-$O$12*K19-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>0.48700298534095954</v>
       </c>
       <c r="R19">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <f ca="1">IF(Q19&gt;0.375,A19,-1)</f>
+        <v>85</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>1.4420268236058955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>71</v>
       </c>
@@ -1467,15 +3117,19 @@
         <v>2556.105</v>
       </c>
       <c r="Q20">
+        <f t="shared" ref="Q20:Q47" ca="1" si="7">ABS(L20-$O$12*K20-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>0.18812729338064449</v>
+      </c>
+      <c r="R20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32793316806682554</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="6"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>1.8918658409092437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>92</v>
       </c>
@@ -1512,15 +3166,19 @@
         <v>2557.692</v>
       </c>
       <c r="Q21">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0414733102011318</v>
+      </c>
+      <c r="R21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95186282160711377</v>
-      </c>
-      <c r="R21">
-        <f t="shared" ca="1" si="6"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>0.79193204253899585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1557,15 +3215,19 @@
         <v>2558.2440000000001</v>
       </c>
       <c r="Q22">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2543714156784085</v>
+      </c>
+      <c r="R22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4692563873850093</v>
-      </c>
-      <c r="R22">
-        <f t="shared" ca="1" si="6"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>0.99024251575091971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1602,15 +3264,19 @@
         <v>2557.002</v>
       </c>
       <c r="Q23">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.48583392206633064</v>
+      </c>
+      <c r="R23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55437347870948872</v>
-      </c>
-      <c r="R23">
-        <f t="shared" ca="1" si="6"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>1.2907998450574811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1647,15 +3313,19 @@
         <v>2559.4859999999999</v>
       </c>
       <c r="Q24">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.9371261666878661</v>
+      </c>
+      <c r="R24">
         <f t="shared" ca="1" si="5"/>
-        <v>2.457991922526761</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ca="1" si="6"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <f t="shared" si="6"/>
+        <v>1.8959872784384129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>56</v>
       </c>
@@ -1692,15 +3362,19 @@
         <v>2557.5540000000001</v>
       </c>
       <c r="Q25">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65584065624285992</v>
+      </c>
+      <c r="R25">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1086933577206672</v>
-      </c>
-      <c r="R25">
-        <f t="shared" ca="1" si="6"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>1.1973790377319715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>80</v>
       </c>
@@ -1737,15 +3411,19 @@
         <v>2557.1400000000003</v>
       </c>
       <c r="Q26">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.1852046351968861</v>
+      </c>
+      <c r="R26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98836395432946889</v>
-      </c>
-      <c r="R26">
-        <f t="shared" ca="1" si="6"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>1.6097655605708006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>62</v>
       </c>
@@ -1782,15 +3460,19 @@
         <v>2558.7269999999999</v>
       </c>
       <c r="Q27">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1243333946199938</v>
+      </c>
+      <c r="R27">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1943073175365071</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>1.6908133072582623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1827,15 +3509,19 @@
         <v>2558.2440000000001</v>
       </c>
       <c r="Q28">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.78256633135893139</v>
+      </c>
+      <c r="R28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8754458329517927</v>
-      </c>
-      <c r="R28">
-        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>1.5672442183655737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1872,15 +3558,19 @@
         <v>2559.279</v>
       </c>
       <c r="Q29">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4230142427021422</v>
+      </c>
+      <c r="R29">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6378482568478363</v>
-      </c>
-      <c r="R29">
-        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T29">
+        <f t="shared" si="6"/>
+        <v>2.0595216532001901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>55</v>
       </c>
@@ -1917,15 +3607,19 @@
         <v>2557.623</v>
       </c>
       <c r="Q30">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.22673209934596331</v>
+      </c>
+      <c r="R30">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5657096315471646</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ca="1" si="6"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="6"/>
+        <v>1.7688651277017107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>36</v>
       </c>
@@ -1962,15 +3656,19 @@
         <v>2556.0359999999996</v>
       </c>
       <c r="Q31">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.84107077398388896</v>
+      </c>
+      <c r="R31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4705452080399754</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="6"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T31">
+        <f t="shared" si="6"/>
+        <v>2.6300171026065962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>44</v>
       </c>
@@ -2007,15 +3705,19 @@
         <v>2560.107</v>
       </c>
       <c r="Q32">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5493502300607542</v>
+      </c>
+      <c r="R32">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5801070150649559</v>
-      </c>
-      <c r="R32">
-        <f t="shared" ca="1" si="6"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T32">
+        <f t="shared" si="6"/>
+        <v>2.9927365470424836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>48</v>
       </c>
@@ -2052,15 +3754,19 @@
         <v>2559.4170000000004</v>
       </c>
       <c r="Q33">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0794935845308247</v>
+      </c>
+      <c r="R33">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1087650457010998</v>
-      </c>
-      <c r="R33">
-        <f t="shared" ca="1" si="6"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T33">
+        <f t="shared" si="6"/>
+        <v>2.5708206938646674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2097,15 +3803,19 @@
         <v>2557.623</v>
       </c>
       <c r="Q34">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.350749976602193E-2</v>
+      </c>
+      <c r="R34">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8241938241801459</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="6"/>
+        <v>2.1472122298457323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>15</v>
       </c>
@@ -2142,15 +3852,19 @@
         <v>2558.8650000000002</v>
       </c>
       <c r="Q35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.60924725124231005</v>
+      </c>
+      <c r="R35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8129293593222324</v>
-      </c>
-      <c r="R35">
-        <f t="shared" ca="1" si="6"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T35">
+        <f t="shared" si="6"/>
+        <v>2.4381316535411361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>61</v>
       </c>
@@ -2187,15 +3901,19 @@
         <v>2560.7280000000001</v>
       </c>
       <c r="Q36">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6762707490561182</v>
+      </c>
+      <c r="R36">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2591063488024146</v>
-      </c>
-      <c r="R36">
-        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>3.6763304856885721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>78</v>
       </c>
@@ -2232,15 +3950,19 @@
         <v>2557.9680000000003</v>
       </c>
       <c r="Q37">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.159034785948546E-2</v>
+      </c>
+      <c r="R37">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2260332184128524</v>
-      </c>
-      <c r="R37">
-        <f t="shared" ca="1" si="6"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="6"/>
+        <v>2.3488137090885313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>34</v>
       </c>
@@ -2277,15 +3999,19 @@
         <v>2557.4160000000002</v>
       </c>
       <c r="Q38">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.4160539385431285</v>
+      </c>
+      <c r="R38">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8563449055680892</v>
-      </c>
-      <c r="R38">
-        <f t="shared" ca="1" si="6"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T38">
+        <f t="shared" si="6"/>
+        <v>2.4504723544654521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -2322,15 +4048,19 @@
         <v>2558.451</v>
       </c>
       <c r="Q39">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.18150260149820921</v>
+      </c>
+      <c r="R39">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6556736426974159</v>
-      </c>
-      <c r="R39">
-        <f t="shared" ca="1" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="6"/>
+        <v>2.5182440310664478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>90</v>
       </c>
@@ -2367,15 +4097,19 @@
         <v>2559.1410000000001</v>
       </c>
       <c r="Q40">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.52268513312251996</v>
+      </c>
+      <c r="R40">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2377945517614566</v>
-      </c>
-      <c r="R40">
-        <f t="shared" ca="1" si="6"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>2.850955355666156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>64</v>
       </c>
@@ -2412,15 +4146,19 @@
         <v>2560.0379999999996</v>
       </c>
       <c r="Q41">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0348486183186967</v>
+      </c>
+      <c r="R41">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9354696323716905</v>
-      </c>
-      <c r="R41">
-        <f t="shared" ca="1" si="6"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T41">
+        <f t="shared" si="6"/>
+        <v>3.3828854015472838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>79</v>
       </c>
@@ -2457,15 +4195,19 @@
         <v>2556.6569999999997</v>
       </c>
       <c r="Q42">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0572812254035089</v>
+      </c>
+      <c r="R42">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4449550476443682</v>
-      </c>
-      <c r="R42">
-        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T42">
+        <f t="shared" si="6"/>
+        <v>2.9001994138340925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2502,15 +4244,19 @@
         <v>2559.4859999999999</v>
       </c>
       <c r="Q43">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.69327639893580095</v>
+      </c>
+      <c r="R43">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5288550062939792</v>
-      </c>
-      <c r="R43">
-        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T43">
+        <f t="shared" si="6"/>
+        <v>3.0638475223161983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2547,15 +4293,19 @@
         <v>2558.1750000000002</v>
       </c>
       <c r="Q44">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.11795762209998309</v>
+      </c>
+      <c r="R44">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5631452693590795</v>
-      </c>
-      <c r="R44">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="6"/>
+        <v>2.6352928945381584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>31</v>
       </c>
@@ -2592,15 +4342,19 @@
         <v>2558.7960000000003</v>
       </c>
       <c r="Q45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.22341975340587125</v>
+      </c>
+      <c r="R45">
         <f t="shared" ca="1" si="5"/>
-        <v>3.057513036929453</v>
-      </c>
-      <c r="R45">
-        <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="6"/>
+        <v>2.8217679139151639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>54</v>
       </c>
@@ -2637,15 +4391,19 @@
         <v>2557.692</v>
       </c>
       <c r="Q46">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.45972468536104555</v>
+      </c>
+      <c r="R46">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2442837847733603</v>
-      </c>
-      <c r="R46">
-        <f t="shared" ca="1" si="6"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T46">
+        <f t="shared" si="6"/>
+        <v>2.6833960125185374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>82</v>
       </c>
@@ -2682,15 +4440,19 @@
         <v>2555.9670000000001</v>
       </c>
       <c r="Q47">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6129206135371845</v>
+      </c>
+      <c r="R47">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0474657047464082</v>
-      </c>
-      <c r="R47">
-        <f t="shared" ca="1" si="6"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T47">
+        <f t="shared" si="6"/>
+        <v>3.3891918151675826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2719,23 +4481,27 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48:K79" si="7">B48*54.6</f>
+        <f t="shared" ref="K48:K79" si="8">B48*54.6</f>
         <v>-5160.6282000000001</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:L79" si="8">C48*69</f>
+        <f t="shared" ref="L48:L79" si="9">C48*69</f>
         <v>2557.0709999999999</v>
       </c>
       <c r="Q48">
-        <f t="shared" ref="Q48:Q79" ca="1" si="9">ABS(L48-$O$12*K48-$O$13)/SQRT(1+$O$12^2)</f>
-        <v>1.8976212701361188</v>
+        <f t="shared" ref="Q48:Q79" ca="1" si="10">ABS(L48-$O$12*K48-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>0.97266754607326622</v>
       </c>
       <c r="R48">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T48">
+        <f t="shared" si="6"/>
+        <v>2.9574720015584126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>75</v>
       </c>
@@ -2764,23 +4530,27 @@
         <v>525</v>
       </c>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.6282000000001</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2558.1059999999998</v>
       </c>
       <c r="Q49">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.6600236940321627</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.33221963473005556</v>
       </c>
       <c r="R49">
-        <f t="shared" ca="1" si="6"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="6"/>
+        <v>2.8467359624668243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2809,23 +4579,27 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.5736000000006</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2559.279</v>
       </c>
       <c r="Q50">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.5610060876805827</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.3507299601586944</v>
       </c>
       <c r="R50">
-        <f t="shared" ca="1" si="6"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="6"/>
+        <v>3.2060066188327352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>19</v>
       </c>
@@ -2854,23 +4628,27 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.5736000000006</v>
       </c>
       <c r="L51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2556.5190000000002</v>
       </c>
       <c r="Q51">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.5279329572910205</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3571311367569092</v>
       </c>
       <c r="R51">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51">
+        <f t="shared" si="6"/>
+        <v>3.2060066188325398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>99</v>
       </c>
@@ -2899,23 +4677,27 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.5190000000002</v>
       </c>
       <c r="L52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2559.7619999999997</v>
       </c>
       <c r="Q52">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.9537201987325328</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.60671428081601098</v>
       </c>
       <c r="R52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <f t="shared" si="6"/>
+        <v>3.4876684991553684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>72</v>
       </c>
@@ -2944,23 +4726,27 @@
         <v>683</v>
       </c>
       <c r="K53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.4643999999998</v>
       </c>
       <c r="L53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.692</v>
       </c>
       <c r="Q53">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4658416641737282</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.71707291317228339</v>
       </c>
       <c r="R53">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <f t="shared" si="6"/>
+        <v>3.0101259109883793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>47</v>
       </c>
@@ -2989,23 +4775,27 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.3552</v>
       </c>
       <c r="L54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.1400000000003</v>
       </c>
       <c r="Q54">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.1330796645625831</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.144427875158925</v>
       </c>
       <c r="R54">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <f t="shared" si="6"/>
+        <v>3.2034153399149399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>49</v>
       </c>
@@ -3034,23 +4824,27 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.3552</v>
       </c>
       <c r="L55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2555.8980000000001</v>
       </c>
       <c r="Q55">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2181967558870623</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9129653687710029</v>
       </c>
       <c r="R55">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <f t="shared" si="6"/>
+        <v>3.6999715998912763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>77</v>
       </c>
@@ -3079,23 +4873,27 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.3005999999996</v>
       </c>
       <c r="L56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2555.0700000000002</v>
       </c>
       <c r="Q56">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.64520113000411339</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.4682150691472193</v>
       </c>
       <c r="R56">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <f t="shared" si="6"/>
+        <v>4.2463941456256729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>95</v>
       </c>
@@ -3124,23 +4922,27 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.3005999999996</v>
       </c>
       <c r="L57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2558.6579999999999</v>
       </c>
       <c r="Q57">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2881961995105775</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.24799564315727221</v>
       </c>
       <c r="R57">
-        <f t="shared" ca="1" si="6"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="6"/>
+        <v>3.2564863334590504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>98</v>
       </c>
@@ -3169,23 +4971,27 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.2460000000001</v>
       </c>
       <c r="L58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2556.864</v>
       </c>
       <c r="Q58">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.0036249779899582</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4009967274541186</v>
       </c>
       <c r="R58">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <f t="shared" si="6"/>
+        <v>3.3835843361739935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>53</v>
       </c>
@@ -3214,23 +5020,27 @@
         <v>574</v>
       </c>
       <c r="K59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.2460000000001</v>
       </c>
       <c r="L59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2558.1750000000002</v>
       </c>
       <c r="Q59">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.9693347149251927</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.58976270641833461</v>
       </c>
       <c r="R59">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <f t="shared" si="6"/>
+        <v>3.2332018124457478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>65</v>
       </c>
@@ -3259,23 +5069,27 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.1913999999997</v>
       </c>
       <c r="L60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.4849999999997</v>
       </c>
       <c r="Q60">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4979927455613367</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0596193519505155</v>
       </c>
       <c r="R60">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T60">
+        <f t="shared" si="6"/>
+        <v>3.3020557233343424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>63</v>
       </c>
@@ -3304,23 +5118,27 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.1913999999997</v>
       </c>
       <c r="L61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2562.7980000000002</v>
       </c>
       <c r="Q61">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4116585215619883</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.22801325961295</v>
       </c>
       <c r="R61">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <f t="shared" si="6"/>
+        <v>5.8934181083653199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3349,23 +5167,27 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.1368000000002</v>
       </c>
       <c r="L62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2561.2799999999997</v>
       </c>
       <c r="Q62">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3303946130798909</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2457982850075515</v>
       </c>
       <c r="R62">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <f t="shared" si="6"/>
+        <v>4.7459516811700242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>23</v>
       </c>
@@ -3394,23 +5216,27 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.0822000000007</v>
       </c>
       <c r="L63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.1400000000003</v>
       </c>
       <c r="Q63">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.3177112307289982</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3588847316671642</v>
       </c>
       <c r="R63">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <f t="shared" si="6"/>
+        <v>3.4692448803734499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>93</v>
       </c>
@@ -3439,23 +5265,27 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5160.0822000000007</v>
       </c>
       <c r="L64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2560.7280000000001</v>
       </c>
       <c r="Q64">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.9607063002354623</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.86133469432278287</v>
       </c>
       <c r="R64">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <f t="shared" si="6"/>
+        <v>4.4116686230947888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>28</v>
       </c>
@@ -3484,23 +5314,27 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.973</v>
       </c>
       <c r="L65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2559.348</v>
       </c>
       <c r="Q65">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.0180223615077502</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.8378596739327733E-2</v>
       </c>
       <c r="R65">
-        <f t="shared" ca="1" si="6"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="6"/>
+        <v>3.7829132107416461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3529,23 +5363,27 @@
         <v>723</v>
       </c>
       <c r="K66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.973</v>
       </c>
       <c r="L66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.9680000000003</v>
       </c>
       <c r="Q66">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.0014857963131365</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.93230914519656682</v>
       </c>
       <c r="R66">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <f t="shared" si="6"/>
+        <v>3.4950811664399906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>81</v>
       </c>
@@ -3574,23 +5412,27 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.9184000000005</v>
       </c>
       <c r="L67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2556.3809999999999</v>
       </c>
       <c r="Q67">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.8693950595713242</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9572206472245461</v>
       </c>
       <c r="R67">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <f t="shared" si="6"/>
+        <v>3.860016191675876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>45</v>
       </c>
@@ -3619,23 +5461,27 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.8638000000001</v>
       </c>
       <c r="L68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2555.7599999999998</v>
       </c>
       <c r="Q68">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.448879918467517</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.3843807653330207</v>
       </c>
       <c r="R68">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <f t="shared" si="6"/>
+        <v>4.1906149858944559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>88</v>
       </c>
@@ -3664,23 +5510,27 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.7546000000002</v>
       </c>
       <c r="L69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.4160000000002</v>
       </c>
       <c r="Q69">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7425764231682219</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4454468497858288</v>
       </c>
       <c r="R69">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <f t="shared" si="6"/>
+        <v>3.7440850471111808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>89</v>
       </c>
@@ -3709,23 +5559,27 @@
         <v>194</v>
       </c>
       <c r="K70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.7546000000002</v>
       </c>
       <c r="L70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2558.3820000000001</v>
       </c>
       <c r="Q70">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.4541520188045518</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.84769546586632416</v>
       </c>
       <c r="R70">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <f t="shared" si="6"/>
+        <v>3.7440850471112395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>25</v>
       </c>
@@ -3754,23 +5608,27 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.7546000000002</v>
       </c>
       <c r="L71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2558.7960000000003</v>
       </c>
       <c r="Q71">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.7591129883631704</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.59151630132858968</v>
       </c>
       <c r="R71">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>3.8196194627217124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>91</v>
       </c>
@@ -3799,23 +5657,27 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.6453999999994</v>
       </c>
       <c r="L72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2559.4170000000004</v>
       </c>
       <c r="Q72">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.2904070691681673</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.29303029712685946</v>
       </c>
       <c r="R72">
-        <f t="shared" ca="1" si="6"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="6"/>
+        <v>4.1124211846562257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>43</v>
       </c>
@@ -3844,23 +5706,27 @@
         <v>996</v>
       </c>
       <c r="K73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.5907999999999</v>
       </c>
       <c r="L73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.8989999999999</v>
       </c>
       <c r="Q73">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.2091431606860685</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2752452717322582</v>
       </c>
       <c r="R73">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <f t="shared" si="6"/>
+        <v>3.8766000000005079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>76</v>
       </c>
@@ -3889,23 +5755,27 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.4270000000006</v>
       </c>
       <c r="L74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2556.5190000000002</v>
       </c>
       <c r="Q74">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.3033855351913042</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.2578499340951161</v>
       </c>
       <c r="R74">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <f t="shared" si="6"/>
+        <v>4.269570488936556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>42</v>
       </c>
@@ -3934,23 +5804,27 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.4270000000006</v>
       </c>
       <c r="L75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2557.0709999999999</v>
       </c>
       <c r="Q75">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7100001612690159</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9162777147122205</v>
       </c>
       <c r="R75">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <f t="shared" si="6"/>
+        <v>4.1243685771277585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3979,23 +5853,27 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.3724000000002</v>
       </c>
       <c r="L76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2555.6910000000003</v>
       </c>
       <c r="Q76">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.7303899093076853</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.8130996344713326</v>
       </c>
       <c r="R76">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <f t="shared" si="6"/>
+        <v>4.6523423132869794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>17</v>
       </c>
@@ -4024,23 +5902,27 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.3724000000002</v>
       </c>
       <c r="L77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2559.0720000000001</v>
       </c>
       <c r="Q77">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.2209044940350076</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.72096979075025269</v>
       </c>
       <c r="R77">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <f t="shared" si="6"/>
+        <v>4.2596894252988236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>37</v>
       </c>
@@ -4069,23 +5951,27 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.3724000000002</v>
       </c>
       <c r="L78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2561.9009999999998</v>
       </c>
       <c r="Q78">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3048044526842837</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0295878335890571</v>
       </c>
       <c r="R78">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <f t="shared" si="6"/>
+        <v>5.7258212511395872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>26</v>
       </c>
@@ -4114,23 +6000,27 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5159.3177999999998</v>
       </c>
       <c r="L79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2560.2449999999999</v>
       </c>
       <c r="Q79">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.1218868876844326</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.8020195863753874E-2</v>
       </c>
       <c r="R79">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="6"/>
+        <v>4.7668539058802057</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>9</v>
       </c>
@@ -4159,23 +6049,27 @@
         <v>1154</v>
       </c>
       <c r="K80">
-        <f t="shared" ref="K80:K115" si="10">B80*54.6</f>
+        <f t="shared" ref="K80:K115" si="11">B80*54.6</f>
         <v>-5159.3177999999998</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L115" si="11">C80*69</f>
+        <f t="shared" ref="L80:L115" si="12">C80*69</f>
         <v>2558.52</v>
       </c>
       <c r="Q80">
-        <f t="shared" ref="Q80:Q115" ca="1" si="12">ABS(L80-$O$12*K80-$O$13)/SQRT(1+$O$12^2)</f>
-        <v>3.8512161811909142</v>
+        <f t="shared" ref="Q80:Q115" ca="1" si="13">ABS(L80-$O$12*K80-$O$13)/SQRT(1+$O$12^2)</f>
+        <v>1.1054333814350212</v>
       </c>
       <c r="R80">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <f t="shared" si="6"/>
+        <v>4.1958099527988013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>60</v>
       </c>
@@ -4204,23 +6098,27 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5159.3177999999998</v>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.9349999999999</v>
       </c>
       <c r="Q81">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.6301551702819062</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.38894507836542841</v>
       </c>
       <c r="R81">
-        <f t="shared" ref="R81:R115" ca="1" si="13">IF(Q81&gt;0.375,A81,-1)</f>
+        <f t="shared" ref="R81:R115" ca="1" si="14">IF(Q81&gt;0.375,A81,-1)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <f t="shared" ref="T81:T115" si="15">SQRT((K81-$K$17)^2+(L81-$L$17)^2)</f>
+        <v>5.1416413877287974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>16</v>
       </c>
@@ -4249,23 +6147,27 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5159.2632000000003</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2554.38</v>
       </c>
       <c r="Q82">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.83853279883901688</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.7101163981097369</v>
       </c>
       <c r="R82">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <f t="shared" si="15"/>
+        <v>5.4825777367949389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4294,23 +6196,27 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5159.0994000000001</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.0030000000002</v>
       </c>
       <c r="Q83">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.3547092319423788</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.97812317468219812</v>
       </c>
       <c r="R83">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T83">
+        <f t="shared" si="15"/>
+        <v>4.5053568116192553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>13</v>
       </c>
@@ -4339,23 +6245,27 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5159.0994000000001</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.5540000000001</v>
       </c>
       <c r="Q84">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.2873458384877163</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.8747502505631433</v>
       </c>
       <c r="R84">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <f t="shared" si="15"/>
+        <v>4.3816034736159422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>67</v>
       </c>
@@ -4384,23 +6294,27 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.9902000000002</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2556.5190000000002</v>
       </c>
       <c r="Q85">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.5987960410582387</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.6009809045089742</v>
       </c>
       <c r="R85">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <f t="shared" si="15"/>
+        <v>4.6850528108017553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>59</v>
       </c>
@@ -4429,23 +6343,27 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.9356000000007</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.3829999999998</v>
       </c>
       <c r="Q86">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.4820247368361716</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.25286674012945243</v>
       </c>
       <c r="R86">
-        <f t="shared" ca="1" si="13"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="15"/>
+        <v>5.1679267835368305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>58</v>
       </c>
@@ -4474,23 +6392,27 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.8810000000003</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.21</v>
       </c>
       <c r="Q87">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.6548949696546531</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0215990776196973</v>
       </c>
       <c r="R87">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <f t="shared" si="15"/>
+        <v>4.7700928670206908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>4</v>
       </c>
@@ -4519,23 +6441,27 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.8263999999999</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.866</v>
       </c>
       <c r="Q88">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.9116651611217401</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.9773790772883323E-2</v>
       </c>
       <c r="R88">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="15"/>
+        <v>5.508354563751821</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>68</v>
       </c>
@@ -4564,23 +6490,27 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.8263999999999</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2555.415</v>
       </c>
       <c r="Q89">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.8963457286019949</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.4127994571815101</v>
       </c>
       <c r="R89">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <f t="shared" si="15"/>
+        <v>5.2639469032280859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>87</v>
       </c>
@@ -4609,23 +6539,27 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.8263999999999</v>
       </c>
       <c r="L90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2561.556</v>
       </c>
       <c r="Q90">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.4199334437192137</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.387191483456299</v>
       </c>
       <c r="R90">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <f t="shared" si="15"/>
+        <v>5.9086825942849606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>40</v>
       </c>
@@ -4654,23 +6588,27 @@
         <v>757</v>
       </c>
       <c r="K91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.8263999999999</v>
       </c>
       <c r="L91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.2440000000001</v>
       </c>
       <c r="Q91">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.9802456872516059</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6622418328422004</v>
       </c>
       <c r="R91">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <f t="shared" si="15"/>
+        <v>4.6538055395563216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>30</v>
       </c>
@@ -4699,23 +6637,27 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.7718000000004</v>
       </c>
       <c r="L92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2554.5870000000004</v>
       </c>
       <c r="Q92">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.3233501027187109</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.9680491575566008</v>
       </c>
       <c r="R92">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <f t="shared" si="15"/>
+        <v>5.746129424229534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>27</v>
       </c>
@@ -4744,23 +6686,27 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.7172</v>
       </c>
       <c r="L93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.7269999999999</v>
       </c>
       <c r="Q93">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.4098861115361689</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4491488834856312</v>
       </c>
       <c r="R93">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <f t="shared" si="15"/>
+        <v>4.8218237255216829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>73</v>
       </c>
@@ -4789,23 +6735,27 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.7172</v>
       </c>
       <c r="L94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.692</v>
       </c>
       <c r="Q94">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.6474836876401255</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0895967948288416</v>
       </c>
       <c r="R94">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <f t="shared" si="15"/>
+        <v>4.7547080919866991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>84</v>
       </c>
@@ -4834,23 +6784,27 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.3896000000004</v>
       </c>
       <c r="L95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.9349999999999</v>
       </c>
       <c r="Q95">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.257902495247718</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34020823376416098</v>
       </c>
       <c r="R95">
-        <f t="shared" ca="1" si="13"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="15"/>
+        <v>5.9161937797878634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>35</v>
       </c>
@@ -4879,23 +6833,27 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.2804000000006</v>
       </c>
       <c r="L96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2555.9670000000001</v>
       </c>
       <c r="Q96">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6722234870128716</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.5001409508150929</v>
       </c>
       <c r="R96">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <f t="shared" si="15"/>
+        <v>5.5351235758561099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>46</v>
       </c>
@@ -4924,23 +6882,27 @@
         <v>970</v>
       </c>
       <c r="K97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.1711999999998</v>
       </c>
       <c r="L97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.451</v>
       </c>
       <c r="Q97">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.5758419308308138</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.0488487061946832</v>
       </c>
       <c r="R97">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <f t="shared" si="15"/>
+        <v>5.3248885847506111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>39</v>
       </c>
@@ -4969,23 +6931,27 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.1166000000003</v>
       </c>
       <c r="L98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2561.694</v>
       </c>
       <c r="Q98">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.0016291722719917</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8.5003288620637427E-2</v>
       </c>
       <c r="R98">
-        <f t="shared" ca="1" si="13"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="15"/>
+        <v>6.5599607956147343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>51</v>
       </c>
@@ -5014,23 +6980,27 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5158.0073999999995</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.21</v>
       </c>
       <c r="Q99">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2457159813878516</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7078610184496648</v>
       </c>
       <c r="R99">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <f t="shared" si="15"/>
+        <v>5.6151866398197949</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>52</v>
       </c>
@@ -5059,23 +7029,27 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.7890000000007</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.3140000000003</v>
       </c>
       <c r="Q100">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.2066504864770762</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1962820648891144</v>
       </c>
       <c r="R100">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(Q100&gt;0.375,A100,-1)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <f t="shared" si="15"/>
+        <v>6.1706119275157434</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>6</v>
       </c>
@@ -5104,23 +7078,27 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.7344000000003</v>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.2440000000001</v>
       </c>
       <c r="Q101">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.7187719519179367</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5200692588774087</v>
       </c>
       <c r="R101">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <f t="shared" si="15"/>
+        <v>5.7433713096057248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>96</v>
       </c>
@@ -5149,23 +7127,27 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.7344000000003</v>
       </c>
       <c r="L102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.9339999999997</v>
       </c>
       <c r="Q102">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.2270402345150755</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.093103984649352</v>
       </c>
       <c r="R102">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T102">
+        <f t="shared" si="15"/>
+        <v>5.8256771280256947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>74</v>
       </c>
@@ -5194,23 +7176,27 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.4614000000001</v>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2556.3809999999999</v>
       </c>
       <c r="Q103">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.5310791550710707</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.8873323558054533</v>
       </c>
       <c r="R103">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <f t="shared" si="15"/>
+        <v>6.1948656159761724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>86</v>
       </c>
@@ -5239,23 +7225,27 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.4067999999997</v>
       </c>
       <c r="L104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2561.2109999999998</v>
       </c>
       <c r="Q104">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.1258834464870082</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0.9414668075053011</v>
       </c>
       <c r="R104">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <f t="shared" si="15"/>
+        <v>6.9065343233786844</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>29</v>
       </c>
@@ -5284,23 +7274,27 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.3521999999994</v>
       </c>
       <c r="L105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2558.9339999999997</v>
       </c>
       <c r="Q105">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.4855244271487269</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3933435837624626</v>
       </c>
       <c r="R105">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <f t="shared" si="15"/>
+        <v>6.2021686562051102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>18</v>
       </c>
@@ -5329,23 +7323,27 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.2975999999999</v>
       </c>
       <c r="L106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2560.3829999999998</v>
       </c>
       <c r="Q106">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.589814133836672</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5396078791833905</v>
       </c>
       <c r="R106">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <f t="shared" si="15"/>
+        <v>6.6510666843752775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>24</v>
       </c>
@@ -5374,23 +7372,27 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5157.1884</v>
       </c>
       <c r="L107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.4849999999997</v>
       </c>
       <c r="Q107">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.5289399733939142</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.4186447735479013</v>
       </c>
       <c r="R107">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T107">
+        <f t="shared" si="15"/>
+        <v>6.2926335504306818</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>94</v>
       </c>
@@ -5419,23 +7421,27 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5156.8607999999995</v>
       </c>
       <c r="L108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.6930000000002</v>
       </c>
       <c r="Q108">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.3769563571064678</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3097041238264309</v>
       </c>
       <c r="R108">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <f t="shared" si="15"/>
+        <v>6.8458454233216601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>33</v>
       </c>
@@ -5464,23 +7470,27 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5156.4786000000004</v>
       </c>
       <c r="L109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2556.6569999999997</v>
       </c>
       <c r="Q109">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.3990601063096912</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.4885909295454676</v>
       </c>
       <c r="R109">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <f t="shared" si="15"/>
+        <v>7.0983018701659644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>12</v>
       </c>
@@ -5509,23 +7519,27 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5156.4786000000004</v>
       </c>
       <c r="L110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.4859999999999</v>
       </c>
       <c r="Q110">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.4829600649593022</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.7380333052072836</v>
       </c>
       <c r="R110">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <f t="shared" si="15"/>
+        <v>7.166721317311084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>57</v>
       </c>
@@ -5554,23 +7568,27 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5156.424</v>
       </c>
       <c r="L111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.623</v>
       </c>
       <c r="Q111">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.1475620151803092</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.9337309169267107</v>
       </c>
       <c r="R111">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <f t="shared" si="15"/>
+        <v>7.0488055413670327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>97</v>
       </c>
@@ -5599,23 +7617,27 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5155.9872000000005</v>
       </c>
       <c r="L112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2556.7260000000001</v>
       </c>
       <c r="Q112">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.7822237536699577</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.8319167438386188</v>
       </c>
       <c r="R112">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <f t="shared" si="15"/>
+        <v>7.5716128427171308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>69</v>
       </c>
@@ -5644,23 +7666,27 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5155.9326000000001</v>
       </c>
       <c r="L113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2559.9</v>
       </c>
       <c r="Q113">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.1571841668514207</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.9107678536871533</v>
       </c>
       <c r="R113">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T113">
+        <f t="shared" si="15"/>
+        <v>7.7959740917993194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>3</v>
       </c>
@@ -5689,23 +7715,27 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5155.4412000000002</v>
       </c>
       <c r="L114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.2089999999998</v>
       </c>
       <c r="Q114">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.5072746838214552</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.9619547648959079</v>
       </c>
       <c r="R114">
         <f ca="1">IF(Q114&gt;0.375,A114,-1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <f t="shared" si="15"/>
+        <v>8.0558045184825584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>66</v>
       </c>
@@ -5734,851 +7764,420 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5154.8406000000004</v>
       </c>
       <c r="L115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2557.692</v>
       </c>
       <c r="Q115">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.2692519272059011</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5.1348841572550699</v>
       </c>
       <c r="R115">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>66</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="15"/>
+        <v>8.6292831243388921</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q16:Q115">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.375</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.375</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T115">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>4.5</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5605CF13-FF61-4459-A0D0-C1826E1BD37D}">
-  <dimension ref="B2:C102"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3">
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
+        <v>74</v>
+      </c>
+      <c r="K4" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>99</v>
+      </c>
+      <c r="J9">
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>97</v>
+      </c>
+      <c r="H10">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1">
         <v>70</v>
       </c>
-      <c r="C4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>71</v>
-      </c>
-      <c r="C7">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11">
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>62</v>
-      </c>
-      <c r="C14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>55</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>61</v>
-      </c>
-      <c r="C23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>78</v>
-      </c>
-      <c r="C24">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>90</v>
-      </c>
-      <c r="C27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>79</v>
-      </c>
-      <c r="C29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>54</v>
-      </c>
-      <c r="C33">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>-1</v>
-      </c>
-      <c r="C34">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>50</v>
-      </c>
-      <c r="C37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>-1</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>99</v>
-      </c>
-      <c r="C39">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>72</v>
-      </c>
-      <c r="C40">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>-1</v>
-      </c>
-      <c r="C41">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>77</v>
-      </c>
-      <c r="C43">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>95</v>
-      </c>
-      <c r="C44">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <v>-1</v>
-      </c>
-      <c r="C45">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>53</v>
-      </c>
-      <c r="C46">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <v>-1</v>
-      </c>
-      <c r="C47">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48">
+      <c r="B17" s="1">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
         <v>63</v>
       </c>
-      <c r="C48">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>-1</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>93</v>
-      </c>
-      <c r="C51">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52">
-        <v>28</v>
-      </c>
-      <c r="C52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53">
-        <v>-1</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>81</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55">
-        <v>45</v>
-      </c>
-      <c r="C55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56">
-        <v>-1</v>
-      </c>
-      <c r="C56">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>-1</v>
-      </c>
-      <c r="C57">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>-1</v>
-      </c>
-      <c r="C58">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>-1</v>
-      </c>
-      <c r="C59">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60">
-        <v>-1</v>
-      </c>
-      <c r="C60">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61">
-        <v>76</v>
-      </c>
-      <c r="C61">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62">
-        <v>42</v>
-      </c>
-      <c r="C62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64">
-        <v>-1</v>
-      </c>
-      <c r="C64">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65">
-        <v>37</v>
-      </c>
-      <c r="C65">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66">
-        <v>-1</v>
-      </c>
-      <c r="C66">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68">
-        <v>-1</v>
-      </c>
-      <c r="C68">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69">
-        <v>16</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70">
-        <v>83</v>
-      </c>
-      <c r="C70">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72">
-        <v>67</v>
-      </c>
-      <c r="C72">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73">
-        <v>-1</v>
-      </c>
-      <c r="C73">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <v>58</v>
-      </c>
-      <c r="C74">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75">
-        <v>-1</v>
-      </c>
-      <c r="C75">
+      <c r="E17" s="1">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76">
-        <v>68</v>
-      </c>
-      <c r="C76">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B77">
-        <v>-1</v>
-      </c>
-      <c r="C77">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78">
-        <v>40</v>
-      </c>
-      <c r="C78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79">
-        <v>30</v>
-      </c>
-      <c r="C79">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B80">
-        <v>27</v>
-      </c>
-      <c r="C80">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B81">
-        <v>73</v>
-      </c>
-      <c r="C81">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82">
-        <v>84</v>
-      </c>
-      <c r="C82">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83">
-        <v>35</v>
-      </c>
-      <c r="C83">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84">
-        <v>46</v>
-      </c>
-      <c r="C84">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B85">
-        <v>39</v>
-      </c>
-      <c r="C85">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B86">
-        <v>51</v>
-      </c>
-      <c r="C86">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87">
-        <v>52</v>
-      </c>
-      <c r="C87">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B89">
-        <v>96</v>
-      </c>
-      <c r="C89">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B90">
-        <v>74</v>
-      </c>
-      <c r="C90">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B91">
-        <v>86</v>
-      </c>
-      <c r="C91">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B92">
-        <v>29</v>
-      </c>
-      <c r="C92">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B93">
-        <v>18</v>
-      </c>
-      <c r="C93">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B94">
-        <v>24</v>
-      </c>
-      <c r="C94">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B96">
-        <v>33</v>
-      </c>
-      <c r="C96">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97">
-        <v>12</v>
-      </c>
-      <c r="C97">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B98">
-        <v>57</v>
-      </c>
-      <c r="C98">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B99">
-        <v>97</v>
-      </c>
-      <c r="C99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B100">
-        <v>69</v>
-      </c>
-      <c r="C100">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B102">
-        <v>66</v>
-      </c>
-      <c r="C102">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:K14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>